--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pdgfb-Art1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pdgfb-Art1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.464945</v>
+        <v>50.40820033333333</v>
       </c>
       <c r="H2">
-        <v>109.394835</v>
+        <v>151.224601</v>
       </c>
       <c r="I2">
-        <v>0.6470580159734581</v>
+        <v>0.9229011783433163</v>
       </c>
       <c r="J2">
-        <v>0.647058015973458</v>
+        <v>0.9229011783433163</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.01257466666666667</v>
+        <v>0.1444536666666667</v>
       </c>
       <c r="N2">
-        <v>0.037724</v>
+        <v>0.433361</v>
       </c>
       <c r="O2">
-        <v>0.01399471506969349</v>
+        <v>0.3107408113832868</v>
       </c>
       <c r="P2">
-        <v>0.01399471506969349</v>
+        <v>0.3107408113832867</v>
       </c>
       <c r="Q2">
-        <v>0.4585345283933333</v>
+        <v>7.281649368217889</v>
       </c>
       <c r="R2">
-        <v>4.12681075554</v>
+        <v>65.534844313961</v>
       </c>
       <c r="S2">
-        <v>0.009055392567109724</v>
+        <v>0.2867830609849936</v>
       </c>
       <c r="T2">
-        <v>0.009055392567109723</v>
+        <v>0.2867830609849935</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.464945</v>
+        <v>50.40820033333333</v>
       </c>
       <c r="H3">
-        <v>109.394835</v>
+        <v>151.224601</v>
       </c>
       <c r="I3">
-        <v>0.6470580159734581</v>
+        <v>0.9229011783433163</v>
       </c>
       <c r="J3">
-        <v>0.647058015973458</v>
+        <v>0.9229011783433163</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,25 +626,25 @@
         <v>0.276082</v>
       </c>
       <c r="N3">
-        <v>0.8282459999999999</v>
+        <v>0.828246</v>
       </c>
       <c r="O3">
-        <v>0.3072597491679926</v>
+        <v>0.5938924685538425</v>
       </c>
       <c r="P3">
-        <v>0.3072597491679926</v>
+        <v>0.5938924685538425</v>
       </c>
       <c r="Q3">
-        <v>10.06731494549</v>
+        <v>13.91679676442733</v>
       </c>
       <c r="R3">
-        <v>90.60583450940999</v>
+        <v>125.251170879846</v>
       </c>
       <c r="S3">
-        <v>0.1988148836851437</v>
+        <v>0.5481040590375621</v>
       </c>
       <c r="T3">
-        <v>0.1988148836851437</v>
+        <v>0.5481040590375621</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,108 +667,108 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.464945</v>
+        <v>50.40820033333333</v>
       </c>
       <c r="H4">
-        <v>109.394835</v>
+        <v>151.224601</v>
       </c>
       <c r="I4">
-        <v>0.6470580159734581</v>
+        <v>0.9229011783433163</v>
       </c>
       <c r="J4">
-        <v>0.647058015973458</v>
+        <v>0.9229011783433163</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.02515166666666667</v>
+        <v>0.04433299999999999</v>
       </c>
       <c r="N4">
-        <v>0.07545499999999999</v>
+        <v>0.132999</v>
       </c>
       <c r="O4">
-        <v>0.02799202697443861</v>
+        <v>0.09536672006287078</v>
       </c>
       <c r="P4">
-        <v>0.02799202697443861</v>
+        <v>0.09536672006287079</v>
       </c>
       <c r="Q4">
-        <v>0.9171541416583333</v>
+        <v>2.234746745377666</v>
       </c>
       <c r="R4">
-        <v>8.254387274925</v>
+        <v>20.112720708399</v>
       </c>
       <c r="S4">
-        <v>0.01811246543715577</v>
+        <v>0.08801405832076063</v>
       </c>
       <c r="T4">
-        <v>0.01811246543715576</v>
+        <v>0.08801405832076065</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>36.464945</v>
+        <v>0.06058233333333334</v>
       </c>
       <c r="H5">
-        <v>109.394835</v>
+        <v>0.181747</v>
       </c>
       <c r="I5">
-        <v>0.6470580159734581</v>
+        <v>0.001109174825730654</v>
       </c>
       <c r="J5">
-        <v>0.647058015973458</v>
+        <v>0.001109174825730654</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.5847213333333333</v>
+        <v>0.1444536666666667</v>
       </c>
       <c r="N5">
-        <v>1.754164</v>
+        <v>0.433361</v>
       </c>
       <c r="O5">
-        <v>0.6507535087878753</v>
+        <v>0.3107408113832868</v>
       </c>
       <c r="P5">
-        <v>0.6507535087878753</v>
+        <v>0.3107408113832867</v>
       </c>
       <c r="Q5">
-        <v>21.32183126032666</v>
+        <v>0.008751340185222225</v>
       </c>
       <c r="R5">
-        <v>191.89648134294</v>
+        <v>0.07876206166700001</v>
       </c>
       <c r="S5">
-        <v>0.421075274284049</v>
+        <v>0.0003446658853134592</v>
       </c>
       <c r="T5">
-        <v>0.4210752742840489</v>
+        <v>0.0003446658853134592</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.06058233333333333</v>
+        <v>0.06058233333333334</v>
       </c>
       <c r="H6">
         <v>0.181747</v>
       </c>
       <c r="I6">
-        <v>0.001075012848907611</v>
+        <v>0.001109174825730654</v>
       </c>
       <c r="J6">
-        <v>0.001075012848907611</v>
+        <v>0.001109174825730654</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.01257466666666667</v>
+        <v>0.276082</v>
       </c>
       <c r="N6">
-        <v>0.037724</v>
+        <v>0.828246</v>
       </c>
       <c r="O6">
-        <v>0.01399471506969349</v>
+        <v>0.5938924685538425</v>
       </c>
       <c r="P6">
-        <v>0.01399471506969349</v>
+        <v>0.5938924685538425</v>
       </c>
       <c r="Q6">
-        <v>0.0007618026475555555</v>
+        <v>0.01672569175133334</v>
       </c>
       <c r="R6">
-        <v>0.006856223828</v>
+        <v>0.150531225762</v>
       </c>
       <c r="S6">
-        <v>1.504449851672148E-05</v>
+        <v>0.0006587305753109564</v>
       </c>
       <c r="T6">
-        <v>1.504449851672148E-05</v>
+        <v>0.0006587305753109564</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,51 +853,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.06058233333333333</v>
+        <v>0.06058233333333334</v>
       </c>
       <c r="H7">
         <v>0.181747</v>
       </c>
       <c r="I7">
-        <v>0.001075012848907611</v>
+        <v>0.001109174825730654</v>
       </c>
       <c r="J7">
-        <v>0.001075012848907611</v>
+        <v>0.001109174825730654</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.276082</v>
+        <v>0.04433299999999999</v>
       </c>
       <c r="N7">
-        <v>0.8282459999999999</v>
+        <v>0.132999</v>
       </c>
       <c r="O7">
-        <v>0.3072597491679926</v>
+        <v>0.09536672006287078</v>
       </c>
       <c r="P7">
-        <v>0.3072597491679926</v>
+        <v>0.09536672006287079</v>
       </c>
       <c r="Q7">
-        <v>0.01672569175133333</v>
+        <v>0.002685796583666666</v>
       </c>
       <c r="R7">
-        <v>0.150531225762</v>
+        <v>0.024172169253</v>
       </c>
       <c r="S7">
-        <v>0.0003303081783077217</v>
+        <v>0.0001057783651062388</v>
       </c>
       <c r="T7">
-        <v>0.0003303081783077217</v>
+        <v>0.0001057783651062388</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,25 +906,25 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.06058233333333333</v>
+        <v>0.7343616666666666</v>
       </c>
       <c r="H8">
-        <v>0.181747</v>
+        <v>2.203085</v>
       </c>
       <c r="I8">
-        <v>0.001075012848907611</v>
+        <v>0.01344509907148298</v>
       </c>
       <c r="J8">
-        <v>0.001075012848907611</v>
+        <v>0.01344509907148298</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,90 +933,90 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.02515166666666667</v>
+        <v>0.1444536666666667</v>
       </c>
       <c r="N8">
-        <v>0.07545499999999999</v>
+        <v>0.433361</v>
       </c>
       <c r="O8">
-        <v>0.02799202697443861</v>
+        <v>0.3107408113832868</v>
       </c>
       <c r="P8">
-        <v>0.02799202697443861</v>
+        <v>0.3107408113832867</v>
       </c>
       <c r="Q8">
-        <v>0.001523746653888889</v>
+        <v>0.1060812354094444</v>
       </c>
       <c r="R8">
-        <v>0.013713719885</v>
+        <v>0.9547311186849998</v>
       </c>
       <c r="S8">
-        <v>3.009178866448995E-05</v>
+        <v>0.004177940994601298</v>
       </c>
       <c r="T8">
-        <v>3.009178866448995E-05</v>
+        <v>0.004177940994601297</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.06058233333333333</v>
+        <v>0.7343616666666666</v>
       </c>
       <c r="H9">
-        <v>0.181747</v>
+        <v>2.203085</v>
       </c>
       <c r="I9">
-        <v>0.001075012848907611</v>
+        <v>0.01344509907148298</v>
       </c>
       <c r="J9">
-        <v>0.001075012848907611</v>
+        <v>0.01344509907148298</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.5847213333333333</v>
+        <v>0.276082</v>
       </c>
       <c r="N9">
-        <v>1.754164</v>
+        <v>0.828246</v>
       </c>
       <c r="O9">
-        <v>0.6507535087878753</v>
+        <v>0.5938924685538425</v>
       </c>
       <c r="P9">
-        <v>0.6507535087878753</v>
+        <v>0.5938924685538425</v>
       </c>
       <c r="Q9">
-        <v>0.03542378272311111</v>
+        <v>0.2027440376566666</v>
       </c>
       <c r="R9">
-        <v>0.318814044508</v>
+        <v>1.82469633891</v>
       </c>
       <c r="S9">
-        <v>0.0006995683834186781</v>
+        <v>0.007984943077514003</v>
       </c>
       <c r="T9">
-        <v>0.0006995683834186781</v>
+        <v>0.007984943077514003</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.725386</v>
+        <v>0.7343616666666666</v>
       </c>
       <c r="H10">
-        <v>20.176158</v>
+        <v>2.203085</v>
       </c>
       <c r="I10">
-        <v>0.1193396814890485</v>
+        <v>0.01344509907148298</v>
       </c>
       <c r="J10">
-        <v>0.1193396814890485</v>
+        <v>0.01344509907148298</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.01257466666666667</v>
+        <v>0.04433299999999999</v>
       </c>
       <c r="N10">
-        <v>0.037724</v>
+        <v>0.132999</v>
       </c>
       <c r="O10">
-        <v>0.01399471506969349</v>
+        <v>0.09536672006287078</v>
       </c>
       <c r="P10">
-        <v>0.01399471506969349</v>
+        <v>0.09536672006287079</v>
       </c>
       <c r="Q10">
-        <v>0.08456948715466667</v>
+        <v>0.03255645576833333</v>
       </c>
       <c r="R10">
-        <v>0.7611253843920001</v>
+        <v>0.2930081019149999</v>
       </c>
       <c r="S10">
-        <v>0.001670124838947208</v>
+        <v>0.001282214999367682</v>
       </c>
       <c r="T10">
-        <v>0.001670124838947208</v>
+        <v>0.001282214999367682</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.725386</v>
+        <v>1.239565333333333</v>
       </c>
       <c r="H11">
-        <v>20.176158</v>
+        <v>3.718696</v>
       </c>
       <c r="I11">
-        <v>0.1193396814890485</v>
+        <v>0.02269464688685525</v>
       </c>
       <c r="J11">
-        <v>0.1193396814890485</v>
+        <v>0.02269464688685525</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,33 +1119,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.276082</v>
+        <v>0.1444536666666667</v>
       </c>
       <c r="N11">
-        <v>0.8282459999999999</v>
+        <v>0.433361</v>
       </c>
       <c r="O11">
-        <v>0.3072597491679926</v>
+        <v>0.3107408113832868</v>
       </c>
       <c r="P11">
-        <v>0.3072597491679926</v>
+        <v>0.3107408113832867</v>
       </c>
       <c r="Q11">
-        <v>1.856758017652</v>
+        <v>0.1790597574728889</v>
       </c>
       <c r="R11">
-        <v>16.710822158868</v>
+        <v>1.611537817256</v>
       </c>
       <c r="S11">
-        <v>0.03666828060011317</v>
+        <v>0.007052152987678584</v>
       </c>
       <c r="T11">
-        <v>0.03666828060011317</v>
+        <v>0.007052152987678582</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.725386</v>
+        <v>1.239565333333333</v>
       </c>
       <c r="H12">
-        <v>20.176158</v>
+        <v>3.718696</v>
       </c>
       <c r="I12">
-        <v>0.1193396814890485</v>
+        <v>0.02269464688685525</v>
       </c>
       <c r="J12">
-        <v>0.1193396814890485</v>
+        <v>0.02269464688685525</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,33 +1181,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.02515166666666667</v>
+        <v>0.276082</v>
       </c>
       <c r="N12">
-        <v>0.07545499999999999</v>
+        <v>0.828246</v>
       </c>
       <c r="O12">
-        <v>0.02799202697443861</v>
+        <v>0.5938924685538425</v>
       </c>
       <c r="P12">
-        <v>0.02799202697443861</v>
+        <v>0.5938924685538425</v>
       </c>
       <c r="Q12">
-        <v>0.1691546668766667</v>
+        <v>0.3422216763573334</v>
       </c>
       <c r="R12">
-        <v>1.52239200189</v>
+        <v>3.079995087216</v>
       </c>
       <c r="S12">
-        <v>0.003340559583362357</v>
+        <v>0.01347817986259224</v>
       </c>
       <c r="T12">
-        <v>0.003340559583362357</v>
+        <v>0.01347817986259224</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1225,51 +1225,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.725386</v>
+        <v>1.239565333333333</v>
       </c>
       <c r="H13">
-        <v>20.176158</v>
+        <v>3.718696</v>
       </c>
       <c r="I13">
-        <v>0.1193396814890485</v>
+        <v>0.02269464688685525</v>
       </c>
       <c r="J13">
-        <v>0.1193396814890485</v>
+        <v>0.02269464688685525</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.5847213333333333</v>
+        <v>0.04433299999999999</v>
       </c>
       <c r="N13">
-        <v>1.754164</v>
+        <v>0.132999</v>
       </c>
       <c r="O13">
-        <v>0.6507535087878753</v>
+        <v>0.09536672006287078</v>
       </c>
       <c r="P13">
-        <v>0.6507535087878753</v>
+        <v>0.09536672006287079</v>
       </c>
       <c r="Q13">
-        <v>3.932476669101333</v>
+        <v>0.05495364992266666</v>
       </c>
       <c r="R13">
-        <v>35.392290021912</v>
+        <v>0.494582849304</v>
       </c>
       <c r="S13">
-        <v>0.07766071646662576</v>
+        <v>0.002164314036584426</v>
       </c>
       <c r="T13">
-        <v>0.07766071646662576</v>
+        <v>0.002164314036584427</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>2.116661</v>
+        <v>0.326966</v>
       </c>
       <c r="H14">
-        <v>6.349983</v>
+        <v>0.980898</v>
       </c>
       <c r="I14">
-        <v>0.03755942775036122</v>
+        <v>0.005986274151482816</v>
       </c>
       <c r="J14">
-        <v>0.03755942775036122</v>
+        <v>0.005986274151482815</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,33 +1305,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.01257466666666667</v>
+        <v>0.1444536666666667</v>
       </c>
       <c r="N14">
-        <v>0.037724</v>
+        <v>0.433361</v>
       </c>
       <c r="O14">
-        <v>0.01399471506969349</v>
+        <v>0.3107408113832868</v>
       </c>
       <c r="P14">
-        <v>0.01399471506969349</v>
+        <v>0.3107408113832867</v>
       </c>
       <c r="Q14">
-        <v>0.02661630652133333</v>
+        <v>0.04723143757533334</v>
       </c>
       <c r="R14">
-        <v>0.239546758692</v>
+        <v>0.425082938178</v>
       </c>
       <c r="S14">
-        <v>0.000525633489547044</v>
+        <v>0.001860179686994567</v>
       </c>
       <c r="T14">
-        <v>0.000525633489547044</v>
+        <v>0.001860179686994566</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>2.116661</v>
+        <v>0.326966</v>
       </c>
       <c r="H15">
-        <v>6.349983</v>
+        <v>0.980898</v>
       </c>
       <c r="I15">
-        <v>0.03755942775036122</v>
+        <v>0.005986274151482816</v>
       </c>
       <c r="J15">
-        <v>0.03755942775036122</v>
+        <v>0.005986274151482815</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1370,92 +1370,92 @@
         <v>0.276082</v>
       </c>
       <c r="N15">
-        <v>0.8282459999999999</v>
+        <v>0.828246</v>
       </c>
       <c r="O15">
-        <v>0.3072597491679926</v>
+        <v>0.5938924685538425</v>
       </c>
       <c r="P15">
-        <v>0.3072597491679926</v>
+        <v>0.5938924685538425</v>
       </c>
       <c r="Q15">
-        <v>0.584372002202</v>
+        <v>0.09026942721200001</v>
       </c>
       <c r="R15">
-        <v>5.259348019818</v>
+        <v>0.812424844908</v>
       </c>
       <c r="S15">
-        <v>0.01154050034946933</v>
+        <v>0.003555203133264188</v>
       </c>
       <c r="T15">
-        <v>0.01154050034946933</v>
+        <v>0.003555203133264188</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>2.116661</v>
+        <v>0.326966</v>
       </c>
       <c r="H16">
-        <v>6.349983</v>
+        <v>0.980898</v>
       </c>
       <c r="I16">
-        <v>0.03755942775036122</v>
+        <v>0.005986274151482816</v>
       </c>
       <c r="J16">
-        <v>0.03755942775036122</v>
+        <v>0.005986274151482815</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.02515166666666667</v>
+        <v>0.04433299999999999</v>
       </c>
       <c r="N16">
-        <v>0.07545499999999999</v>
+        <v>0.132999</v>
       </c>
       <c r="O16">
-        <v>0.02799202697443861</v>
+        <v>0.09536672006287078</v>
       </c>
       <c r="P16">
-        <v>0.02799202697443861</v>
+        <v>0.09536672006287079</v>
       </c>
       <c r="Q16">
-        <v>0.05323755191833333</v>
+        <v>0.014495383678</v>
       </c>
       <c r="R16">
-        <v>0.479137967265</v>
+        <v>0.130458453102</v>
       </c>
       <c r="S16">
-        <v>0.001051364514732589</v>
+        <v>0.000570891331224061</v>
       </c>
       <c r="T16">
-        <v>0.001051364514732589</v>
+        <v>0.000570891331224061</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.116661</v>
+        <v>1.849607</v>
       </c>
       <c r="H17">
-        <v>6.349983</v>
+        <v>5.548821</v>
       </c>
       <c r="I17">
-        <v>0.03755942775036122</v>
+        <v>0.03386362672113209</v>
       </c>
       <c r="J17">
-        <v>0.03755942775036122</v>
+        <v>0.03386362672113209</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.5847213333333333</v>
+        <v>0.1444536666666667</v>
       </c>
       <c r="N17">
-        <v>1.754164</v>
+        <v>0.433361</v>
       </c>
       <c r="O17">
-        <v>0.6507535087878753</v>
+        <v>0.3107408113832868</v>
       </c>
       <c r="P17">
-        <v>0.6507535087878753</v>
+        <v>0.3107408113832867</v>
       </c>
       <c r="Q17">
-        <v>1.237656842134667</v>
+        <v>0.2671825130423334</v>
       </c>
       <c r="R17">
-        <v>11.138911579212</v>
+        <v>2.404642617381</v>
       </c>
       <c r="S17">
-        <v>0.02444192939661226</v>
+        <v>0.01052281084370534</v>
       </c>
       <c r="T17">
-        <v>0.02444192939661226</v>
+        <v>0.01052281084370534</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4695343333333333</v>
+        <v>1.849607</v>
       </c>
       <c r="H18">
-        <v>1.408603</v>
+        <v>5.548821</v>
       </c>
       <c r="I18">
-        <v>0.00833172665303861</v>
+        <v>0.03386362672113209</v>
       </c>
       <c r="J18">
-        <v>0.00833172665303861</v>
+        <v>0.03386362672113209</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1553,33 +1553,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.01257466666666667</v>
+        <v>0.276082</v>
       </c>
       <c r="N18">
-        <v>0.037724</v>
+        <v>0.828246</v>
       </c>
       <c r="O18">
-        <v>0.01399471506969349</v>
+        <v>0.5938924685538425</v>
       </c>
       <c r="P18">
-        <v>0.01399471506969349</v>
+        <v>0.5938924685538425</v>
       </c>
       <c r="Q18">
-        <v>0.005904237730222222</v>
+        <v>0.510643199774</v>
       </c>
       <c r="R18">
-        <v>0.053138139572</v>
+        <v>4.595788797966001</v>
       </c>
       <c r="S18">
-        <v>0.0001166001405478463</v>
+        <v>0.020111352867599</v>
       </c>
       <c r="T18">
-        <v>0.0001166001405478463</v>
+        <v>0.020111352867599</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,418 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4695343333333333</v>
+        <v>1.849607</v>
       </c>
       <c r="H19">
-        <v>1.408603</v>
+        <v>5.548821</v>
       </c>
       <c r="I19">
-        <v>0.00833172665303861</v>
+        <v>0.03386362672113209</v>
       </c>
       <c r="J19">
-        <v>0.00833172665303861</v>
+        <v>0.03386362672113209</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.276082</v>
+        <v>0.04433299999999999</v>
       </c>
       <c r="N19">
-        <v>0.8282459999999999</v>
+        <v>0.132999</v>
       </c>
       <c r="O19">
-        <v>0.3072597491679926</v>
+        <v>0.09536672006287078</v>
       </c>
       <c r="P19">
-        <v>0.3072597491679926</v>
+        <v>0.09536672006287079</v>
       </c>
       <c r="Q19">
-        <v>0.1296299778153333</v>
+        <v>0.08199862713099998</v>
       </c>
       <c r="R19">
-        <v>1.166669800338</v>
+        <v>0.7379876441789999</v>
       </c>
       <c r="S19">
-        <v>0.002560004241548922</v>
+        <v>0.003229463009827755</v>
       </c>
       <c r="T19">
-        <v>0.002560004241548922</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.4695343333333333</v>
-      </c>
-      <c r="H20">
-        <v>1.408603</v>
-      </c>
-      <c r="I20">
-        <v>0.00833172665303861</v>
-      </c>
-      <c r="J20">
-        <v>0.00833172665303861</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M20">
-        <v>0.02515166666666667</v>
-      </c>
-      <c r="N20">
-        <v>0.07545499999999999</v>
-      </c>
-      <c r="O20">
-        <v>0.02799202697443861</v>
-      </c>
-      <c r="P20">
-        <v>0.02799202697443861</v>
-      </c>
-      <c r="Q20">
-        <v>0.01180957104055556</v>
-      </c>
-      <c r="R20">
-        <v>0.106286139365</v>
-      </c>
-      <c r="S20">
-        <v>0.0002332219172155059</v>
-      </c>
-      <c r="T20">
-        <v>0.0002332219172155059</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.4695343333333333</v>
-      </c>
-      <c r="H21">
-        <v>1.408603</v>
-      </c>
-      <c r="I21">
-        <v>0.00833172665303861</v>
-      </c>
-      <c r="J21">
-        <v>0.00833172665303861</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.5847213333333333</v>
-      </c>
-      <c r="N21">
-        <v>1.754164</v>
-      </c>
-      <c r="O21">
-        <v>0.6507535087878753</v>
-      </c>
-      <c r="P21">
-        <v>0.6507535087878753</v>
-      </c>
-      <c r="Q21">
-        <v>0.2745467414324445</v>
-      </c>
-      <c r="R21">
-        <v>2.470920672892</v>
-      </c>
-      <c r="S21">
-        <v>0.005421900353726336</v>
-      </c>
-      <c r="T21">
-        <v>0.005421900353726336</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>10.51787666666667</v>
-      </c>
-      <c r="H22">
-        <v>31.55363</v>
-      </c>
-      <c r="I22">
-        <v>0.1866361352851859</v>
-      </c>
-      <c r="J22">
-        <v>0.1866361352851859</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M22">
-        <v>0.01257466666666667</v>
-      </c>
-      <c r="N22">
-        <v>0.037724</v>
-      </c>
-      <c r="O22">
-        <v>0.01399471506969349</v>
-      </c>
-      <c r="P22">
-        <v>0.01399471506969349</v>
-      </c>
-      <c r="Q22">
-        <v>0.1322587931244445</v>
-      </c>
-      <c r="R22">
-        <v>1.19032913812</v>
-      </c>
-      <c r="S22">
-        <v>0.002611919535024943</v>
-      </c>
-      <c r="T22">
-        <v>0.002611919535024943</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>10.51787666666667</v>
-      </c>
-      <c r="H23">
-        <v>31.55363</v>
-      </c>
-      <c r="I23">
-        <v>0.1866361352851859</v>
-      </c>
-      <c r="J23">
-        <v>0.1866361352851859</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M23">
-        <v>0.276082</v>
-      </c>
-      <c r="N23">
-        <v>0.8282459999999999</v>
-      </c>
-      <c r="O23">
-        <v>0.3072597491679926</v>
-      </c>
-      <c r="P23">
-        <v>0.3072597491679926</v>
-      </c>
-      <c r="Q23">
-        <v>2.903796425886667</v>
-      </c>
-      <c r="R23">
-        <v>26.13416783298</v>
-      </c>
-      <c r="S23">
-        <v>0.05734577211340974</v>
-      </c>
-      <c r="T23">
-        <v>0.05734577211340974</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>10.51787666666667</v>
-      </c>
-      <c r="H24">
-        <v>31.55363</v>
-      </c>
-      <c r="I24">
-        <v>0.1866361352851859</v>
-      </c>
-      <c r="J24">
-        <v>0.1866361352851859</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.02515166666666667</v>
-      </c>
-      <c r="N24">
-        <v>0.07545499999999999</v>
-      </c>
-      <c r="O24">
-        <v>0.02799202697443861</v>
-      </c>
-      <c r="P24">
-        <v>0.02799202697443861</v>
-      </c>
-      <c r="Q24">
-        <v>0.2645421279611112</v>
-      </c>
-      <c r="R24">
-        <v>2.38087915165</v>
-      </c>
-      <c r="S24">
-        <v>0.005224323733307897</v>
-      </c>
-      <c r="T24">
-        <v>0.005224323733307897</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>10.51787666666667</v>
-      </c>
-      <c r="H25">
-        <v>31.55363</v>
-      </c>
-      <c r="I25">
-        <v>0.1866361352851859</v>
-      </c>
-      <c r="J25">
-        <v>0.1866361352851859</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.5847213333333333</v>
-      </c>
-      <c r="N25">
-        <v>1.754164</v>
-      </c>
-      <c r="O25">
-        <v>0.6507535087878753</v>
-      </c>
-      <c r="P25">
-        <v>0.6507535087878753</v>
-      </c>
-      <c r="Q25">
-        <v>6.150026868368889</v>
-      </c>
-      <c r="R25">
-        <v>55.35024181532</v>
-      </c>
-      <c r="S25">
-        <v>0.1214541199034433</v>
-      </c>
-      <c r="T25">
-        <v>0.1214541199034433</v>
+        <v>0.003229463009827755</v>
       </c>
     </row>
   </sheetData>
